--- a/Archive.xlsx
+++ b/Archive.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44328.93560115961</v>
+        <v>44328.93560115741</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44330.60583978138</v>
+        <v>44330.6058397801</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -621,6 +621,31 @@
         </is>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>Консьерж</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FORD FIESTA AB123A</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Прохоров Михаил Владимирович</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>44341.01427251267</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Добавить гостя</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Консьерж</t>
         </is>
